--- a/results/table2/all.xlsx
+++ b/results/table2/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/ptre269_uoa_auckland_ac_nz/Documents/Documents/GitHub/mit-sepsis-tx/results/table2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_433575965B30594575E3C0F0505ED87656CD423F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14E9FCA3-111C-48C4-8350-48B4DF0323B0}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_433575965B30594575E3C0F0505ED87656CD423F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{047E937B-57F4-4E83-ADEB-7BF564A2C894}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1089,13 +1089,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>3507</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -1544,7 +1545,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -1582,7 +1583,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -1696,7 +1697,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>120</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>128</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>140</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>147</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>154</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>161</v>
       </c>
@@ -1973,7 +1974,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>167</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>173</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>180</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>184</v>
       </c>
@@ -2107,7 +2108,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -2136,7 +2137,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>198</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>205</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>209</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>213</v>
       </c>
@@ -2252,7 +2253,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>220</v>
       </c>
@@ -2281,7 +2282,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>224</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>231</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>235</v>
       </c>
